--- a/Validation and Testing.xlsx
+++ b/Validation and Testing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirinebenbrahim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neela\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="3700" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form field validation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1034,6 +1034,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1304,19 +1307,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="8" max="8" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="8" max="8" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,13 +1506,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -1522,13 +1525,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
@@ -1717,7 +1720,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1840,7 +1843,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -1864,7 +1867,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -1914,7 +1917,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -1938,7 +1941,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -2014,7 +2017,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2038,7 +2041,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -2062,7 +2065,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2072,7 +2075,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>238</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>238</v>
       </c>
@@ -2124,10 +2127,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>253</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>256</v>
       </c>
@@ -2176,14 +2179,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="D41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
@@ -2208,7 +2211,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>267</v>
       </c>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2272,10 +2275,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
   </sheetData>
@@ -2300,14 +2303,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>156</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>190</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>190</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>190</v>
       </c>
@@ -2816,15 +2819,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.36328125" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" customWidth="1"/>
+    <col min="6" max="6" width="41.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2861,13 +2864,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2952,10 +2955,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -3237,7 +3240,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -3259,7 +3262,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -3277,7 +3280,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
@@ -3316,7 +3319,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -3334,7 +3337,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
@@ -3354,7 +3357,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3372,7 +3375,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3392,7 +3395,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -3456,7 +3459,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -3476,7 +3479,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -3498,7 +3501,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -3518,7 +3521,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -3538,7 +3541,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
@@ -3560,7 +3563,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -3582,7 +3585,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
@@ -3602,7 +3605,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
@@ -3622,7 +3625,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -3642,13 +3645,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>219</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>219</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>236</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>236</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>236</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>236</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>236</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>254</v>
       </c>
@@ -3946,18 +3949,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="101.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="101.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="64.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -3996,8 +4001,11 @@
       <c r="E2" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="4">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -4013,8 +4021,11 @@
       <c r="E3" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="4">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
@@ -4030,8 +4041,11 @@
       <c r="E4" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="4">
+        <v>43071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>290</v>
       </c>
@@ -4048,7 +4062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>293</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>43071</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>296</v>
       </c>
@@ -4088,7 +4102,7 @@
         <v>43072</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>299</v>
       </c>
@@ -4108,7 +4122,7 @@
         <v>43072</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>301</v>
       </c>
@@ -4128,7 +4142,7 @@
         <v>43072</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>303</v>
       </c>
@@ -4145,7 +4159,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>306</v>
       </c>
@@ -4162,7 +4176,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>307</v>
       </c>
@@ -4179,7 +4193,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>308</v>
       </c>
@@ -4196,7 +4210,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>309</v>
       </c>
@@ -4211,7 +4225,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>311</v>
       </c>
